--- a/biology/Botanique/Astragalus_austriacus/Astragalus_austriacus.xlsx
+++ b/biology/Botanique/Astragalus_austriacus/Astragalus_austriacus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astragalus austriacus, l'Astragale d'Autriche, est une espèce de plantes à fleurs de la famille des Fabaceae. Elle est d'origine eurasiatique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet astragale est une plante herbacée pérenne.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve cet astragale en Asie de l'ouest (Turquie, Kazakhstan, Russie) et en Europe (Autriche, Bulgarie, Espagne, ex-Yougoslavie, France, Hongrie, Italie, Moldavie, Roumanie, Slovaquie, Ukraine).
 En France, dans les Alpes internes du Sud, de 600 à 1 700 m. d'altitude.
@@ -574,7 +590,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses xérophiles basiphiles.
 </t>
@@ -605,9 +623,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante à l'échelon mondial[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante à l'échelon mondial.
 En France, l'espèce est considérée comme quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient l'être si des mesures de conservation spécifiques n'étaient pas prises.
 </t>
         </is>
@@ -637,7 +657,9 @@
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cette espèce a reçu d'autres appellations, synonymes mais non valides :
 Astragalus dichopterus Pall.
